--- a/stablecoins.xlsx
+++ b/stablecoins.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/Projects/CCAF/crypto-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936035E4-3274-E446-BEC5-A82B8CF0D2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734799E2-962F-A24C-8A95-68C1BA1AEC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38140" yWindow="500" windowWidth="20040" windowHeight="24580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -511,21 +511,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -617,7 +617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -646,7 +646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -675,7 +675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -733,7 +733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -762,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -820,7 +820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -849,7 +849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -907,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -936,7 +936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -965,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0.99881663783421737</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.99970635021955057</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>1.0015000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1.003056162993756</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1435,7 +1435,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I32" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Tether"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/stablecoins.xlsx
+++ b/stablecoins.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/Projects/CCAF/crypto-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734799E2-962F-A24C-8A95-68C1BA1AEC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B88AC15-26CF-4B44-B156-4AAFA9690268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38140" yWindow="500" windowWidth="20040" windowHeight="24580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="77">
   <si>
     <t>data_provider</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Tether</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:12.384Z</t>
+    <t>2022-11-27T21:20:05.413Z</t>
   </si>
   <si>
     <t>USDC</t>
@@ -70,7 +70,7 @@
     <t>USD Coin</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:02.016Z</t>
+    <t>2022-11-27T21:24:58.431Z</t>
   </si>
   <si>
     <t>BUSD</t>
@@ -79,7 +79,7 @@
     <t>Binance USD</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:15.186Z</t>
+    <t>2022-11-27T21:25:00.063Z</t>
   </si>
   <si>
     <t>DAI</t>
@@ -88,13 +88,13 @@
     <t>Dai</t>
   </si>
   <si>
-    <t>2022-11-22T17:35:33.140Z</t>
+    <t>2022-11-27T21:20:14.059Z</t>
   </si>
   <si>
     <t>FRAX</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:15.230Z</t>
+    <t>2022-11-27T21:24:45.468Z</t>
   </si>
   <si>
     <t>USDP</t>
@@ -103,7 +103,7 @@
     <t>Pax Dollar</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:24.970Z</t>
+    <t>2022-11-27T21:24:45.879Z</t>
   </si>
   <si>
     <t>GUSD</t>
@@ -112,7 +112,7 @@
     <t>Gemini Dollar</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:18.531Z</t>
+    <t>2022-11-27T21:24:50.500Z</t>
   </si>
   <si>
     <t>TUSD</t>
@@ -121,34 +121,139 @@
     <t>TrueUSD</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:18.881Z</t>
+    <t>2022-11-27T21:24:55.834Z</t>
+  </si>
+  <si>
+    <t>FXS</t>
+  </si>
+  <si>
+    <t>Frax Share</t>
+  </si>
+  <si>
+    <t>2022-11-27T21:24:54.779Z</t>
   </si>
   <si>
     <t>CoinMarketCap</t>
   </si>
   <si>
-    <t>2022-11-22T17:40:00.000Z</t>
+    <t>2022-11-27T21:28:00.000Z</t>
+  </si>
+  <si>
+    <t>USDN</t>
+  </si>
+  <si>
+    <t>Neutrino Dollar</t>
+  </si>
+  <si>
+    <t>FEI</t>
+  </si>
+  <si>
+    <t>Fei USD</t>
+  </si>
+  <si>
+    <t>SNX</t>
+  </si>
+  <si>
+    <t>Synthetix USD</t>
+  </si>
+  <si>
+    <t>CELO</t>
+  </si>
+  <si>
+    <t>Celo Dollar</t>
+  </si>
+  <si>
+    <t>CoinMetrics</t>
   </si>
   <si>
     <t>CryptoCompare</t>
   </si>
   <si>
-    <t>2022-11-22 17:42:44</t>
-  </si>
-  <si>
-    <t>2022-11-22 17:42:53</t>
-  </si>
-  <si>
-    <t>2022-11-22 17:42:55</t>
-  </si>
-  <si>
-    <t>2022-11-22 16:51:27</t>
-  </si>
-  <si>
-    <t>2022-11-22 17:42:50</t>
+    <t>2022-11-27 21:30:07</t>
+  </si>
+  <si>
+    <t>2022-11-27 21:30:10</t>
+  </si>
+  <si>
+    <t>2022-11-27 21:29:37</t>
+  </si>
+  <si>
+    <t>XDGB</t>
+  </si>
+  <si>
+    <t>DigitalBits</t>
+  </si>
+  <si>
+    <t>2022-11-27 21:24:02</t>
+  </si>
+  <si>
+    <t>USTC</t>
+  </si>
+  <si>
+    <t>TerraUSD</t>
+  </si>
+  <si>
+    <t>EURS</t>
+  </si>
+  <si>
+    <t>Stasis Euro</t>
+  </si>
+  <si>
+    <t>2022-11-27 21:30:15</t>
+  </si>
+  <si>
+    <t>CELOUSD</t>
+  </si>
+  <si>
+    <t>2022-11-27 21:30:19</t>
+  </si>
+  <si>
+    <t>STEEMD</t>
+  </si>
+  <si>
+    <t>Steem Dollars</t>
+  </si>
+  <si>
+    <t>2022-11-27 21:30:13</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Sperax</t>
+  </si>
+  <si>
+    <t>DIGG</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>Float Protocol</t>
+  </si>
+  <si>
+    <t>ESD</t>
+  </si>
+  <si>
+    <t>Empty Set Dollar</t>
+  </si>
+  <si>
+    <t>DSD</t>
+  </si>
+  <si>
+    <t>Dynamic Set Dollar</t>
   </si>
   <si>
     <t>OnChainFX</t>
+  </si>
+  <si>
+    <t>UST</t>
+  </si>
+  <si>
+    <t>CUSDT</t>
+  </si>
+  <si>
+    <t>SBD</t>
   </si>
 </sst>
 </file>
@@ -167,6 +272,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,17 +617,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -564,62 +670,62 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>65540461601</v>
+        <v>22407051553</v>
       </c>
       <c r="E2">
-        <v>65506652113.5205</v>
+        <v>22401537202.43</v>
       </c>
       <c r="F2">
-        <v>65506652113.5205</v>
+        <v>22401537202.43</v>
       </c>
       <c r="G2">
-        <v>41497075676</v>
+        <v>4993744452</v>
       </c>
       <c r="H2">
-        <v>0.99643599999999999</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>44139002140</v>
+        <v>22401305101.055908</v>
       </c>
       <c r="E3">
-        <v>44181350356.923302</v>
+        <v>22401537190.32925</v>
       </c>
       <c r="F3">
-        <v>44181450154.333298</v>
+        <v>22401537190.32925</v>
       </c>
       <c r="G3">
-        <v>3744998947</v>
+        <v>4398681358.9720526</v>
       </c>
       <c r="H3">
-        <v>0.99904099999999996</v>
+        <v>0.99998963958270504</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -628,259 +734,247 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>22856916547</v>
+        <v>22479245472.823879</v>
       </c>
       <c r="E4">
-        <v>22809029756.240002</v>
+        <v>22485537202.43</v>
       </c>
       <c r="F4">
-        <v>22769036436.240002</v>
+        <v>22485537202.428539</v>
       </c>
       <c r="G4">
-        <v>9970468715</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.99785100000000004</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.99985200829953003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>5395124977</v>
+        <v>22410484376.388649</v>
       </c>
       <c r="E5">
-        <v>5380317388.1721601</v>
+        <v>22401537202.43</v>
       </c>
       <c r="F5">
-        <v>5377100826.72293</v>
+        <v>22401537202.43</v>
       </c>
       <c r="G5">
-        <v>345879313</v>
+        <v>559056136.07860959</v>
       </c>
       <c r="H5">
-        <v>1.0029999999999999</v>
+        <v>1.0003994</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>1174590773</v>
+        <v>22485537202.43</v>
       </c>
       <c r="E6">
-        <v>1177827326.5308499</v>
+        <v>22485537202.43</v>
       </c>
       <c r="F6">
-        <v>1177827326.5308499</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>16218032</v>
+        <v>267817971.85135779</v>
       </c>
       <c r="H6">
-        <v>0.99725200000000003</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>925864116</v>
+        <v>319286136.54103571</v>
       </c>
       <c r="E7">
-        <v>923968357.90068305</v>
+        <v>473376178</v>
       </c>
       <c r="F7">
-        <v>923968357.90068305</v>
+        <v>1000000000</v>
       </c>
       <c r="G7">
-        <v>5761164</v>
+        <v>211804562.0260745</v>
       </c>
       <c r="H7">
-        <v>0.99685599999999996</v>
+        <v>0.67448712330647886</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>613706222</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>611139702.82000005</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>610022359.79999995</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>16355588</v>
+        <v>624963.84034995618</v>
       </c>
       <c r="H8">
-        <v>0.99873100000000004</v>
+        <v>0.99570221999999997</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>856562103</v>
+        <v>44931500.785401911</v>
       </c>
       <c r="E9">
-        <v>854641718.70630801</v>
+        <v>45131871.963481702</v>
       </c>
       <c r="F9">
-        <v>849642919.56630802</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>53753135</v>
+        <v>771257.30964740715</v>
       </c>
       <c r="H9">
-        <v>0.998363</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
+        <v>0.99559853422876321</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>65449882241.908623</v>
+        <v>5229249784</v>
       </c>
       <c r="E10">
-        <v>65506652113.520493</v>
+        <v>5223104809.2593298</v>
       </c>
       <c r="F10">
-        <v>73141766321.234283</v>
+        <v>5223104809.2593298</v>
       </c>
       <c r="G10">
-        <v>49551783444.206413</v>
+        <v>153991661</v>
       </c>
       <c r="H10">
-        <v>0.99913337241668998</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>44172818729.70208</v>
+        <v>5690176327.2652617</v>
       </c>
       <c r="E11">
-        <v>44165305881.243317</v>
+        <v>5689772512.1896048</v>
       </c>
       <c r="F11">
-        <v>44165305881.243317</v>
+        <v>5689772512.1896048</v>
       </c>
       <c r="G11">
-        <v>4418067237.1022692</v>
+        <v>147670051.2526435</v>
       </c>
       <c r="H11">
-        <v>1.000170107470306</v>
+        <v>1.0000709720950689</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>22788295298.23941</v>
+        <v>5266508687.9897232</v>
       </c>
       <c r="E12">
-        <v>22774463706.139259</v>
+        <v>5266992854.0699987</v>
       </c>
       <c r="F12">
-        <v>22774463706.139259</v>
+        <v>4904275506.1963501</v>
       </c>
       <c r="G12">
-        <v>9183539358.8143501</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.0006073289926221</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.99984606379865004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -889,502 +983,508 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>5840246408.4773483</v>
+        <v>5222583629.5140333</v>
       </c>
       <c r="E13">
-        <v>5840860153.6489782</v>
+        <v>5223125965.0540257</v>
       </c>
       <c r="F13">
-        <v>5840860153.6489782</v>
+        <v>5223105940.1080437</v>
       </c>
       <c r="G13">
-        <v>363938621.85533547</v>
+        <v>5468186.3467038348</v>
       </c>
       <c r="H13">
-        <v>0.99989492212525466</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>946698114.59186935</v>
+        <v>5264894123.4217978</v>
       </c>
       <c r="E14">
-        <v>945642940.11000001</v>
+        <v>5266382329.6878595</v>
       </c>
       <c r="F14">
-        <v>945642940.11000001</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>5977162.3515838096</v>
+        <v>5558145.9287425671</v>
       </c>
       <c r="H14">
-        <v>1.0011158275889489</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.99840256602244537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>618042956.56381357</v>
+        <v>1501724.1518295321</v>
       </c>
       <c r="E15">
-        <v>611139702.82000005</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>611139702.82000005</v>
+        <v>573.92652340999996</v>
       </c>
       <c r="G15">
-        <v>6142543.7222045101</v>
+        <v>4.2489800000000839</v>
       </c>
       <c r="H15">
-        <v>1.0112957049132301</v>
+        <v>2616.5791100000001</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>855440225.48750067</v>
+        <v>6897786.2662312035</v>
       </c>
       <c r="E16">
-        <v>854641718.70630777</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>854641718.70630777</v>
+        <v>1390396338.1717999</v>
       </c>
       <c r="G16">
-        <v>41132792.117969863</v>
+        <v>121550467.11211351</v>
       </c>
       <c r="H16">
-        <v>1.000934317578601</v>
+        <v>4.9610215999999997E-3</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <v>65434594796.195618</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>65506652113.520493</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>65506652113.520493</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>783120341.33043897</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.99890000000000001</v>
+        <v>2.0087939999999999E-3</v>
       </c>
       <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>179146.68580503139</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>118085796.0132018</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1.5170892E-3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>44177232739.242889</v>
-      </c>
-      <c r="E18">
-        <v>44181650904.333321</v>
-      </c>
-      <c r="F18">
-        <v>44181650904.333321</v>
-      </c>
-      <c r="G18">
-        <v>147551710.9390372</v>
-      </c>
-      <c r="H18">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>422074807.77709121</v>
+      </c>
+      <c r="E19">
+        <v>424996177.78890562</v>
+      </c>
+      <c r="F19">
+        <v>426116732.6917724</v>
+      </c>
+      <c r="G19">
+        <v>3948547.0522443899</v>
+      </c>
+      <c r="H19">
+        <v>0.99312612638774034</v>
+      </c>
+      <c r="I19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>22766734486.6563</v>
-      </c>
-      <c r="E19">
-        <v>22769036436.240002</v>
-      </c>
-      <c r="F19">
-        <v>22769036436.240002</v>
-      </c>
-      <c r="G19">
-        <v>1400869344.2567511</v>
-      </c>
-      <c r="H19">
-        <v>0.99989889999999992</v>
-      </c>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>5376563116.6402607</v>
+        <v>50211111.281713054</v>
       </c>
       <c r="E20">
-        <v>5377100826.7229328</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>5377100826.7229328</v>
+        <v>50478505.008875988</v>
       </c>
       <c r="G20">
-        <v>31416168.117309328</v>
+        <v>153962.68936228001</v>
       </c>
       <c r="H20">
-        <v>0.99990000000000001</v>
+        <v>0.99470281999999988</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>922029962.74424851</v>
+        <v>49271310.179434411</v>
       </c>
       <c r="E21">
-        <v>923968357.9006834</v>
+        <v>50119555.869160362</v>
       </c>
       <c r="F21">
-        <v>923968357.9006834</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>38684.310630414133</v>
       </c>
       <c r="H21">
-        <v>0.99790209790209805</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.98307555454121864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>922792.99735184177</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1016279.7376462671</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.90801081943152484</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>1176417805.2769389</v>
-      </c>
-      <c r="E22">
+      <c r="D23">
+        <v>1177800144</v>
+      </c>
+      <c r="E23">
+        <v>1177827326.5308499</v>
+      </c>
+      <c r="F23">
+        <v>1177827326.5308499</v>
+      </c>
+      <c r="G23">
+        <v>5452946</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>1234799541.0115449</v>
+      </c>
+      <c r="E24">
         <v>1177827326.5308521</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>1177827326.5308521</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0.99880328701655707</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>609412337.44019997</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>610022359.79999995</v>
-      </c>
-      <c r="G23">
-        <v>133271.5499999999</v>
-      </c>
-      <c r="H23">
-        <v>0.999</v>
-      </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <v>1218026287.0406549</v>
-      </c>
-      <c r="E24">
-        <v>1210891351.9276919</v>
-      </c>
-      <c r="F24">
-        <v>1210891351.9276919</v>
-      </c>
       <c r="G24">
-        <v>5579700.7056562081</v>
+        <v>899062.80925112194</v>
       </c>
       <c r="H24">
-        <v>1.0058923</v>
+        <v>1.0483705999999999</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>65808542217.202972</v>
+        <v>1181426958.8192289</v>
       </c>
       <c r="E25">
-        <v>65884935624.740593</v>
+        <v>1177827326.5308499</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>640193123.43218374</v>
+        <v>35753.926685748447</v>
       </c>
       <c r="H25">
-        <v>0.99881663783421737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.003056162993756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>44449518729.886238</v>
+        <v>330661430</v>
       </c>
       <c r="E26">
-        <v>44449518729.886238</v>
+        <v>71965723.267331004</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>99822984.114571407</v>
       </c>
       <c r="G26">
-        <v>218459332.66689461</v>
+        <v>1237493</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.59</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>22872131223.560001</v>
+        <v>457713058.40698308</v>
       </c>
       <c r="E27">
-        <v>22872131223.560001</v>
+        <v>71082647.907986194</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>99822984.114571407</v>
       </c>
       <c r="G27">
-        <v>506503173.96500719</v>
+        <v>98520.922550117815</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.5852472000000004</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>5405736377.5305977</v>
+        <v>329796025.96127212</v>
       </c>
       <c r="E28">
-        <v>5406773598.8363104</v>
+        <v>71958679.585352793</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>31043360.095414679</v>
+        <v>454169.80922798882</v>
       </c>
       <c r="H28">
-        <v>0.99970635021955057</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.5846950869625562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>945359247.22796702</v>
+        <v>603957117</v>
       </c>
       <c r="E29">
-        <v>945642940.11000001</v>
+        <v>603924464.88999999</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>603924464.88999999</v>
       </c>
       <c r="G29">
-        <v>371635.20810521382</v>
+        <v>964094</v>
       </c>
       <c r="H29">
-        <v>1.0015000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.99954299999999996</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>1181426958.8192289</v>
+        <v>609451013.40947676</v>
       </c>
       <c r="E30">
-        <v>1177827326.5308499</v>
+        <v>607049883.35000002</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>611139702.82000005</v>
       </c>
       <c r="G30">
-        <v>35753.926685748447</v>
+        <v>624594.19056341995</v>
       </c>
       <c r="H30">
-        <v>1.003056162993756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.0039554081556299</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -1393,56 +1493,1000 @@
         <v>28</v>
       </c>
       <c r="D31">
-        <v>616415468.34000003</v>
+        <v>603832789.70310986</v>
       </c>
       <c r="E31">
-        <v>616415468.34000003</v>
+        <v>603924464.88999999</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>603812356.55999994</v>
       </c>
       <c r="G31">
-        <v>139858.15377043921</v>
+        <v>0</v>
       </c>
       <c r="H31">
+        <v>0.99958582307203003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>603320540.42510998</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>603924464.88999999</v>
+      </c>
+      <c r="G32">
+        <v>7258.3999999999714</v>
+      </c>
+      <c r="H32">
+        <v>0.999</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>607049883.35000002</v>
+      </c>
+      <c r="E33">
+        <v>607049883.35000002</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>7354.8758638947183</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34">
+        <v>632090535.31465125</v>
+      </c>
+      <c r="E34">
+        <v>680266294.44413495</v>
+      </c>
+      <c r="F34">
+        <v>680266898.50423777</v>
+      </c>
+      <c r="G34">
+        <v>1770388.3515699001</v>
+      </c>
+      <c r="H34">
+        <v>0.92918102877807651</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>92578083.252566993</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>102972058.08207799</v>
+      </c>
+      <c r="G35">
+        <v>134758.14399768031</v>
+      </c>
+      <c r="H35">
+        <v>0.89906023999999995</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>89066754.436167702</v>
+      </c>
+      <c r="E36">
+        <v>103139968.660962</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>27272.852736916651</v>
+      </c>
+      <c r="H36">
+        <v>0.86355227359962405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>908046285</v>
+      </c>
+      <c r="E37">
+        <v>908635514.78068304</v>
+      </c>
+      <c r="F37">
+        <v>908635514.78068304</v>
+      </c>
+      <c r="G37">
+        <v>1704364</v>
+      </c>
+      <c r="H37">
+        <v>0.99909099999999995</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>949613884.02289414</v>
+      </c>
+      <c r="E38">
+        <v>945642940.11000001</v>
+      </c>
+      <c r="F38">
+        <v>945642940.11000001</v>
+      </c>
+      <c r="G38">
+        <v>1319791.6779291299</v>
+      </c>
+      <c r="H38">
+        <v>1.0041992000833131</v>
+      </c>
+      <c r="I38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>908362842.32451212</v>
+      </c>
+      <c r="E39">
+        <v>908635514.7806834</v>
+      </c>
+      <c r="F39">
+        <v>908635514.7806834</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.99969990997299185</v>
+      </c>
+      <c r="I39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>903851585.65047252</v>
+      </c>
+      <c r="E40">
+        <v>945642940.11000001</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>109266.02790875761</v>
+      </c>
+      <c r="H40">
+        <v>0.95580641203257311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41">
+        <v>30156895</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>5000000000</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>6.0313789999999999E-3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>121570435.14727999</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>124125940</v>
+      </c>
+      <c r="G42">
+        <v>2564.890000000004</v>
+      </c>
+      <c r="H42">
+        <v>0.97941199999999995</v>
+      </c>
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>126111955.04000001</v>
+      </c>
+      <c r="E43">
+        <v>124125940</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>9386.4136209612006</v>
+      </c>
+      <c r="H43">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>2481.2658391338609</v>
+      </c>
+      <c r="H44">
+        <v>2.1657975372</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45">
+        <v>25310133.728360221</v>
+      </c>
+      <c r="E45">
+        <v>11779965.056</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>11601.685458903839</v>
+      </c>
+      <c r="H45">
+        <v>2.14857460171062</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>523942039.43912131</v>
+      </c>
+      <c r="E46">
+        <v>307345511.13952321</v>
+      </c>
+      <c r="F46">
+        <v>308069419.08877361</v>
+      </c>
+      <c r="G46">
+        <v>12466753.20999133</v>
+      </c>
+      <c r="H46">
+        <v>1.7047330136579459</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47">
+        <v>512147602.52829009</v>
+      </c>
+      <c r="E47">
+        <v>309383581.67598772</v>
+      </c>
+      <c r="F47">
+        <v>308583499.67598772</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1.70117112316715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <v>524327435.3757565</v>
+      </c>
+      <c r="E48">
+        <v>249792441.50797361</v>
+      </c>
+      <c r="F48">
+        <v>308069419.08877361</v>
+      </c>
+      <c r="G48">
+        <v>3574327.703483609</v>
+      </c>
+      <c r="H48">
+        <v>1.7019782000000001</v>
+      </c>
+      <c r="I48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>46198406.55851835</v>
+      </c>
+      <c r="E49">
+        <v>45979275.458980493</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>266295.13059559331</v>
+      </c>
+      <c r="H49">
+        <v>1.004765866737795</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>208163018.01609111</v>
+      </c>
+      <c r="E50">
+        <v>9806402580.5356617</v>
+      </c>
+      <c r="F50">
+        <v>9806402580.5356617</v>
+      </c>
+      <c r="G50">
+        <v>85408054.87382026</v>
+      </c>
+      <c r="H50">
+        <v>2.1227256E-2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>207991065.758367</v>
+      </c>
+      <c r="E51">
+        <v>9805954721.8108902</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>8957756.9213001076</v>
+      </c>
+      <c r="H51">
+        <v>2.121135E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>65352234394</v>
+      </c>
+      <c r="E52">
+        <v>65362681003.315903</v>
+      </c>
+      <c r="F52">
+        <v>65362681003.315903</v>
+      </c>
+      <c r="G52">
+        <v>22675972944</v>
+      </c>
+      <c r="H52">
+        <v>0.99983999999999995</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>65334327658.276978</v>
+      </c>
+      <c r="E53">
+        <v>65362681003.315872</v>
+      </c>
+      <c r="F53">
+        <v>73141766321.234283</v>
+      </c>
+      <c r="G53">
+        <v>26468386962.277161</v>
+      </c>
+      <c r="H53">
+        <v>0.99956621508475985</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>887471595.36645246</v>
+      </c>
+      <c r="E54">
+        <v>888000000</v>
+      </c>
+      <c r="F54">
+        <v>888000000</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.999403997369959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>65323463394.71389</v>
+      </c>
+      <c r="E55">
+        <v>65362681003.315872</v>
+      </c>
+      <c r="F55">
+        <v>65362681003.315872</v>
+      </c>
+      <c r="G55">
+        <v>336787142.25683588</v>
+      </c>
+      <c r="H55">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>65315264727.695648</v>
+      </c>
+      <c r="E56">
+        <v>65362681003.315872</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>291902726.5199644</v>
+      </c>
+      <c r="H56">
+        <v>0.99935890740157129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C57" t="s">
         <v>31</v>
       </c>
-      <c r="D32">
-        <v>866491056.766289</v>
-      </c>
-      <c r="E32">
-        <v>861139377.49263477</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>6392476.1776684253</v>
-      </c>
-      <c r="H32">
-        <v>1.0062349164947459</v>
+      <c r="D57">
+        <v>806802778</v>
+      </c>
+      <c r="E57">
+        <v>808140801.88630795</v>
+      </c>
+      <c r="F57">
+        <v>808140801.88630795</v>
+      </c>
+      <c r="G57">
+        <v>31195367</v>
+      </c>
+      <c r="H57">
+        <v>0.99827299999999997</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>808222016.6165061</v>
+      </c>
+      <c r="E58">
+        <v>808140801.88630772</v>
+      </c>
+      <c r="F58">
+        <v>808140801.88630772</v>
+      </c>
+      <c r="G58">
+        <v>29551035.196709819</v>
+      </c>
+      <c r="H58">
+        <v>1.0001004957675801</v>
+      </c>
+      <c r="I58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>506139574.06</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.99853198120585895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60">
+        <v>1209559734.7079771</v>
+      </c>
+      <c r="E60">
+        <v>1210891351.9276919</v>
+      </c>
+      <c r="F60">
+        <v>1210891351.9276919</v>
+      </c>
+      <c r="G60">
+        <v>3895725.4288867521</v>
+      </c>
+      <c r="H60">
+        <v>0.99890029999999996</v>
+      </c>
+      <c r="I60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61">
+        <v>807051662.81298625</v>
+      </c>
+      <c r="E61">
+        <v>807845450.88630772</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>4099520.056325248</v>
+      </c>
+      <c r="H61">
+        <v>0.99903576722529763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>44222619352</v>
+      </c>
+      <c r="E62">
+        <v>44231893459.017998</v>
+      </c>
+      <c r="F62">
+        <v>44232054343.617996</v>
+      </c>
+      <c r="G62">
+        <v>2027184477</v>
+      </c>
+      <c r="H62">
+        <v>0.99982499999999996</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>44209795541.952393</v>
+      </c>
+      <c r="E63">
+        <v>44207073467.687973</v>
+      </c>
+      <c r="F63">
+        <v>44207073467.687973</v>
+      </c>
+      <c r="G63">
+        <v>2272889195.1110048</v>
+      </c>
+      <c r="H63">
+        <v>1.000061575536467</v>
+      </c>
+      <c r="I63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>40718941633.945381</v>
+      </c>
+      <c r="E64">
+        <v>40724964465.839546</v>
+      </c>
+      <c r="F64">
+        <v>40208499035.910759</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.99986010987726504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>44227441590.520287</v>
+      </c>
+      <c r="E65">
+        <v>44231864776.997978</v>
+      </c>
+      <c r="F65">
+        <v>44231864776.997978</v>
+      </c>
+      <c r="G65">
+        <v>157493807.9076117</v>
+      </c>
+      <c r="H65">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>44050197867.387978</v>
+      </c>
+      <c r="E66">
+        <v>44050197867.387978</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>189735314.22860649</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I32" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Tether"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I66">
+      <sortCondition ref="C1:C66"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>